--- a/hackathon_contributions_new_data_format/Swameye_PNAS2003/General_info.xlsx
+++ b/hackathon_contributions_new_data_format/Swameye_PNAS2003/General_info.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jvanhoefer/Dokumente/GitHub/Benchmark-Models/Benchmark-Models/Benchmark-Models/Swameye_PNAS2003/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D211A8-94F2-2D45-8409-864C64A32815}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="2680" yWindow="460" windowWidth="15720" windowHeight="16260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="General Info" r:id="rId3" sheetId="1"/>
-    <sheet name="Parameters" r:id="rId4" sheetId="2"/>
-    <sheet name="Experimental conditions" r:id="rId5" sheetId="3"/>
-    <sheet name="Raw ODEs" r:id="rId6" sheetId="4"/>
+    <sheet name="General Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Experimental conditions" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw ODEs" sheetId="4" r:id="rId4"/>
   </sheets>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -341,11 +349,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -357,7 +364,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -375,18 +382,326 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,53 +709,38 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-    </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>-142.1180247120381</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7">
+        <v>-142.11802471203811</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>44.338400621006414</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9"/>
-      <c r="B9"/>
-    </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -448,33 +748,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>1.4</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>0.45</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-    </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -482,7 +777,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -490,7 +785,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -498,36 +793,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="n">
-        <v>1.0</v>
+      <c r="B19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -547,324 +845,308 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.0</v>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>-5</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="n">
-        <v>-0.6205008683861558</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.0</v>
+      <c r="B3">
+        <v>-0.62050086838615581</v>
+      </c>
+      <c r="C3">
+        <v>-5</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="n">
-        <v>-0.5654992309262553</v>
-      </c>
-      <c r="C4" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.0</v>
+      <c r="B4">
+        <v>-0.56549923092625531</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.5508170422746348</v>
-      </c>
-      <c r="C5" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.0</v>
+      <c r="B5">
+        <v>0.55081704227463479</v>
+      </c>
+      <c r="C5">
+        <v>-5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.9999999999999605</v>
       </c>
-      <c r="C6" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.0</v>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="n">
-        <v>-0.9070904635340348</v>
-      </c>
-      <c r="C7" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.0</v>
+      <c r="B7">
+        <v>-0.90709046353403477</v>
+      </c>
+      <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" t="n">
-        <v>-0.012903766677571015</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.0</v>
+      <c r="B8">
+        <v>-1.2903766677571015E-2</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.04116123219491961</v>
-      </c>
-      <c r="C9" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.0</v>
+      <c r="B9">
+        <v>4.1161232194919607E-2</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-0.17558567420249874</v>
       </c>
-      <c r="C10" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.0</v>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-2.7277545216160597</v>
       </c>
-      <c r="C11" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.0</v>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B12" t="n">
-        <v>-0.255464156674321</v>
-      </c>
-      <c r="C12" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.0</v>
+      <c r="B12">
+        <v>-0.25546415667432099</v>
+      </c>
+      <c r="C12">
+        <v>-5</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" t="n">
-        <v>-0.07058969156268208</v>
-      </c>
-      <c r="C13" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.0</v>
+      <c r="B13">
+        <v>-7.0589691562682078E-2</v>
+      </c>
+      <c r="C13">
+        <v>-5</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="n">
-        <v>-0.4292572575584894</v>
-      </c>
-      <c r="C14" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1.0</v>
+      <c r="B14">
+        <v>-0.42925725755848942</v>
+      </c>
+      <c r="C14">
+        <v>-5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B15" t="n">
-        <v>-4.462643925653645</v>
-      </c>
-      <c r="C15" t="n">
-        <v>-5.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1.0</v>
+      <c r="B15">
+        <v>-4.4626439256536452</v>
+      </c>
+      <c r="C15">
+        <v>-5</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3"/>
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -881,366 +1163,241 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.0</v>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="F4">
+        <v>46</v>
+      </c>
+      <c r="G4">
         <v>44.3384006210064</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-    </row>
-    <row r="6">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-    </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-    </row>
-    <row r="13">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-    </row>
-    <row r="15">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>59</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-    </row>
-    <row r="16">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>60</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-    </row>
-    <row r="17">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>62</v>
       </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-    </row>
-    <row r="18">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>63</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-    </row>
-    <row r="19">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-    </row>
-    <row r="20">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>69</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-    </row>
-    <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
       </c>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
       </c>
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>79</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
       </c>
-      <c r="C8"/>
-      <c r="D8"/>
-    </row>
-    <row r="9">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>81</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>83</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
       </c>
-      <c r="C10"/>
-      <c r="D10"/>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>85</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
       </c>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>87</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
       </c>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15">
-      <c r="A15"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>90</v>
       </c>
@@ -1251,7 +1408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1265,7 +1422,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -1279,7 +1436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>100</v>
       </c>
@@ -1293,41 +1450,28 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>102</v>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>103</v>
       </c>
       <c r="B21" t="s">
         <v>104</v>
       </c>
-      <c r="C21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>105</v>
       </c>
       <c r="B22" t="s">
         <v>106</v>
       </c>
-      <c r="C22"/>
-      <c r="D22"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/hackathon_contributions_new_data_format/Swameye_PNAS2003/General_info.xlsx
+++ b/hackathon_contributions_new_data_format/Swameye_PNAS2003/General_info.xlsx
@@ -34,13 +34,13 @@
     <t xml:space="preserve">FACTS</t>
   </si>
   <si>
-    <t xml:space="preserve">The model contains 46 data points, 16 free parameters and 1 experimental conditions</t>
+    <t xml:space="preserve">The model contains 46 data points, 13 free parameters and 1 experimental conditions</t>
   </si>
   <si>
     <t xml:space="preserve">Errors are assumed as additive Gaussian errors</t>
   </si>
   <si>
-    <t xml:space="preserve">Likelihood value of the model is </t>
+    <t xml:space="preserve">Log-likelihood value of the model is </t>
   </si>
   <si>
     <t xml:space="preserve">Chi2 value of the model is </t>
@@ -443,8 +443,8 @@
   </sheetPr>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,7 +563,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -584,8 +584,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -891,7 +890,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -906,8 +905,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1072,7 +1071,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1088,14 +1087,12 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,7 +1259,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
